--- a/Dataset_Tester/Smaller.xlsx
+++ b/Dataset_Tester/Smaller.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sook Mun\Google Drive\Y3S2\CS2\fit3162\Dataset_Tester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\New Hp\Documents\MATLAB\fit3162\Dataset_Tester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C93A8F-4E8D-4A00-B9C9-F768A235156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C789558-26A0-4813-A581-F183BAEEA1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7485" yWindow="2985" windowWidth="19185" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,12 +387,12 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -400,7 +400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -408,7 +408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -424,7 +424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -432,7 +432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -448,7 +448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -456,7 +456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -464,7 +464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -472,7 +472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
